--- a/thinger.MTHProject/bin/Debug/Config/Group.xlsx
+++ b/thinger.MTHProject/bin/Debug/Config/Group.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" state="visible" r:id="R8c7494f74b06420195d60814b01532cc"/>
+    <x:sheet name="Sheet1" sheetId="1" state="visible" r:id="R1614d4ff89c045e391a820197d1992cf"/>
   </x:sheets>
 </x:workbook>
 </file>
